--- a/server/src/main/resources/templates/template-dict.xlsx
+++ b/server/src/main/resources/templates/template-dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A25D58-9C84-4D5B-B935-BF40FF9FCFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938AD929-1BA8-4E89-91EF-F4C264550EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="2610" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -75,12 +75,13 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>字典编码</t>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类型编码</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,29 +97,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>字典名称</t>
+      <t>明细编码</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字典备注</t>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明细名称</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类型编码</t>
-    </r>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,13 +199,24 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>字典编码：</t>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明细</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编码：</t>
     </r>
     <r>
       <rPr>
@@ -235,24 +246,12 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>字典</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>名称</t>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明细名称</t>
     </r>
     <r>
       <rPr>
@@ -348,7 +347,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  类型备注：</t>
+      <t xml:space="preserve">  备注：</t>
     </r>
     <r>
       <rPr>
@@ -880,7 +879,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -905,13 +904,13 @@
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -920,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/main/resources/templates/template-dict.xlsx
+++ b/server/src/main/resources/templates/template-dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938AD929-1BA8-4E89-91EF-F4C264550EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66167FCA-F063-46DF-941B-E0D064270D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="5745" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -86,43 +86,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>明细编码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>明细名称</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字典编码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字典名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>注意：表头携带“</t>
     </r>
     <r>
@@ -204,7 +204,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>明细</t>
+      <t>字典</t>
     </r>
     <r>
       <rPr>
@@ -251,7 +251,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>明细名称</t>
+      <t>字典名称</t>
     </r>
     <r>
       <rPr>
@@ -907,10 +907,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -935,11 +935,11 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="类型编码填写错误" error="请填写0~16位的字典类型编码" promptTitle="类型编码" prompt="必填，请填写0~16位的字典类型编码" sqref="A3:A1048576" xr:uid="{8FDBF8A0-8042-476C-839C-35DADA0EB0C8}">
       <formula1>16</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字典编码填写错误" error="字典编码必填，且长度范围为1~16位" promptTitle="字典编码" prompt="必填，且编码长度范围1~16位" sqref="B3:B1048576" xr:uid="{16B8A45E-BCF1-4E65-B345-5C48BB4F98C5}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字典编码填写错误" error="字典编码必填，且长度范围为1~16位" promptTitle="字典编码" prompt="必填，且编码长度范围1~16位" sqref="B3:B1048576" xr:uid="{65ACE347-DCAE-45C7-922E-2495963090B6}">
       <formula1>1</formula1>
       <formula2>16</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字典名称填写错误" error="字典名称必填，且长度范围为1~16位" promptTitle="字典名称" prompt="必填，且名称长度范围1~16位" sqref="C3:C1048576" xr:uid="{1B2A9EEE-723B-45B9-B914-E633E339F947}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字典名称填写错误" error="字典名称必填，且长度范围为1~16位" promptTitle="字典名称" prompt="必填，且名称长度范围1~16位" sqref="C3:C1048576" xr:uid="{74185F1E-AE7F-4B21-B8E2-ADE44AF0B6A0}">
       <formula1>1</formula1>
       <formula2>16</formula2>
     </dataValidation>
